--- a/medicine/Handicap/Les_Mots_perdus/Les_Mots_perdus.xlsx
+++ b/medicine/Handicap/Les_Mots_perdus/Les_Mots_perdus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mots perdus est un film documentaire sur l'aphasie, réalisé par Marcel Simard et sorti en 1993, co-produit en Montréal par sa compagnie de production Virage avec l'Office national du film du Canada[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mots perdus est un film documentaire sur l'aphasie, réalisé par Marcel Simard et sorti en 1993, co-produit en Montréal par sa compagnie de production Virage avec l'Office national du film du Canada.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vie de quatre personnes vivant avec l'aphasie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vie de quatre personnes vivant avec l'aphasie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Mots perdus
 Réalisation : Marcel Simard
@@ -556,7 +572,7 @@
 Genre : Documentaire
 Durée : 87 minutes
 Date de sortie :
-Canada : 2 septembre 1993 (première en clôture du Festival international de cinéma de Sherbrooke)[2]
+Canada : 2 septembre 1993 (première en clôture du Festival international de cinéma de Sherbrooke)
 France : 19 octobre 1994</t>
         </is>
       </c>
